--- a/LSA Documentation/LSA Data Dictionary.xlsx
+++ b/LSA Documentation/LSA Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/LSA Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{23B34BCF-412C-4C0D-BFEB-0158A11511E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6033D3-5517-4B12-9A72-0DC9B46F258E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{23B34BCF-412C-4C0D-BFEB-0158A11511E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6256144D-E9EF-4AFC-A250-DC9EE74A4EBC}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="-13230" windowWidth="21705" windowHeight="9315" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$I$286</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$921</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$XFB$923</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1389">
   <si>
     <t>File ID</t>
   </si>
@@ -4218,6 +4218,12 @@
   </si>
   <si>
     <t>Parenting Child - Hispanic/Latina/o (any combination)</t>
+  </si>
+  <si>
+    <t>HUD: ESG-CV (if present, must have an end date of 9/30/2025 or earlier)</t>
+  </si>
+  <si>
+    <t>HUD: HOPWA-CV (if present, must have an end date of 9/30/2025 or earlier)</t>
   </si>
 </sst>
 </file>
@@ -12696,11 +12702,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N921"/>
+  <dimension ref="A1:N923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A856" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D872" sqref="D872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25101,24 +25107,24 @@
         <v>20</v>
       </c>
       <c r="C877">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D877" t="s">
-        <v>452</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A878">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B878" t="s">
         <v>20</v>
       </c>
       <c r="C878">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D878" t="s">
-        <v>453</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
@@ -25129,10 +25135,10 @@
         <v>20</v>
       </c>
       <c r="C879">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D879" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.45">
@@ -25143,10 +25149,10 @@
         <v>20</v>
       </c>
       <c r="C880">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D880" t="s">
-        <v>1094</v>
+        <v>453</v>
       </c>
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.45">
@@ -25157,10 +25163,10 @@
         <v>20</v>
       </c>
       <c r="C881">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D881" t="s">
-        <v>1093</v>
+        <v>454</v>
       </c>
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.45">
@@ -25171,10 +25177,10 @@
         <v>20</v>
       </c>
       <c r="C882">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D882" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.45">
@@ -25185,38 +25191,38 @@
         <v>20</v>
       </c>
       <c r="C883">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D883" t="s">
-        <v>1195</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A884">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B884" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="C884">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D884" t="s">
-        <v>456</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A885">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B885" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="C885">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D885" t="s">
-        <v>457</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.45">
@@ -25227,38 +25233,38 @@
         <v>455</v>
       </c>
       <c r="C886">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D886" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A887">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B887" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
       <c r="C887">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D887" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A888">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B888" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
       <c r="C888">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D888" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.45">
@@ -25269,38 +25275,38 @@
         <v>323</v>
       </c>
       <c r="C889">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D889" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A890">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B890" t="s">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="C890">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D890" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A891">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B891" t="s">
-        <v>459</v>
+        <v>323</v>
       </c>
       <c r="C891">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D891" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.45">
@@ -25311,38 +25317,38 @@
         <v>459</v>
       </c>
       <c r="C892">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D892" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A893">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B893" t="s">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="C893">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D893" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A894">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B894" t="s">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="C894">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D894" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.45">
@@ -25353,10 +25359,10 @@
         <v>320</v>
       </c>
       <c r="C895">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D895" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.45">
@@ -25367,38 +25373,38 @@
         <v>320</v>
       </c>
       <c r="C896">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D896" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A897">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B897" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="C897">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D897" t="s">
-        <v>1096</v>
+        <v>471</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A898">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B898" t="s">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="C898">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D898" t="s">
-        <v>658</v>
+        <v>472</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.45">
@@ -25409,10 +25415,10 @@
         <v>70</v>
       </c>
       <c r="C899">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D899" t="s">
-        <v>1189</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.45">
@@ -25423,10 +25429,10 @@
         <v>70</v>
       </c>
       <c r="C900">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D900" t="s">
-        <v>1186</v>
+        <v>658</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.45">
@@ -25437,10 +25443,10 @@
         <v>70</v>
       </c>
       <c r="C901">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D901" t="s">
-        <v>659</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.45">
@@ -25451,10 +25457,10 @@
         <v>70</v>
       </c>
       <c r="C902">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D902" t="s">
-        <v>1098</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.45">
@@ -25465,10 +25471,10 @@
         <v>70</v>
       </c>
       <c r="C903">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D903" t="s">
-        <v>1097</v>
+        <v>659</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.45">
@@ -25479,38 +25485,38 @@
         <v>70</v>
       </c>
       <c r="C904">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D904" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A905">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B905" t="s">
-        <v>706</v>
+        <v>70</v>
       </c>
       <c r="C905">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D905" t="s">
-        <v>431</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A906">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B906" t="s">
-        <v>706</v>
+        <v>70</v>
       </c>
       <c r="C906">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D906" t="s">
-        <v>432</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.45">
@@ -25521,38 +25527,38 @@
         <v>706</v>
       </c>
       <c r="C907">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D907" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A908">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B908" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C908">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D908" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A909">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B909" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C909">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D909" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.45">
@@ -25563,38 +25569,38 @@
         <v>707</v>
       </c>
       <c r="C910">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D910" t="s">
-        <v>708</v>
+        <v>431</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A911">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B911" t="s">
-        <v>184</v>
+        <v>707</v>
       </c>
       <c r="C911">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D911" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A912">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B912" t="s">
-        <v>184</v>
+        <v>707</v>
       </c>
       <c r="C912">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D912" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.45">
@@ -25605,10 +25611,10 @@
         <v>184</v>
       </c>
       <c r="C913">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D913" t="s">
-        <v>711</v>
+        <v>467</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.45">
@@ -25619,38 +25625,38 @@
         <v>184</v>
       </c>
       <c r="C914">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D914" t="s">
-        <v>523</v>
+        <v>710</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A915">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B915" t="s">
-        <v>853</v>
+        <v>184</v>
       </c>
       <c r="C915">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D915" t="s">
-        <v>856</v>
+        <v>711</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A916">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B916" t="s">
-        <v>853</v>
+        <v>184</v>
       </c>
       <c r="C916">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D916" t="s">
-        <v>857</v>
+        <v>523</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.45">
@@ -25661,38 +25667,38 @@
         <v>853</v>
       </c>
       <c r="C917">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D917" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A918">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B918" t="s">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="C918">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D918" t="s">
-        <v>1095</v>
+        <v>857</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A919">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B919" t="s">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="C919">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D919" t="s">
-        <v>373</v>
+        <v>858</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.45">
@@ -25703,10 +25709,10 @@
         <v>75</v>
       </c>
       <c r="C920">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D920" t="s">
-        <v>1193</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.45">
@@ -25717,14 +25723,42 @@
         <v>75</v>
       </c>
       <c r="C921">
+        <v>1</v>
+      </c>
+      <c r="D921" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A922">
+        <v>48</v>
+      </c>
+      <c r="B922" t="s">
+        <v>75</v>
+      </c>
+      <c r="C922">
+        <v>2</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A923">
+        <v>48</v>
+      </c>
+      <c r="B923" t="s">
+        <v>75</v>
+      </c>
+      <c r="C923">
         <v>3</v>
       </c>
-      <c r="D921" t="s">
+      <c r="D923" t="s">
         <v>1194</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFB921" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
+  <autoFilter ref="A1:XFB923" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C220:D256">
     <sortCondition ref="C220:C256"/>
   </sortState>
